--- a/Data/cyano_data.xlsx
+++ b/Data/cyano_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD_code\WY_DEQ\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD_Code\WY_DEQ\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91332472-91E7-42FC-8467-C62174342D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719D26C-C6FB-4D0A-B0EA-0727123F083C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C9CAADA-9318-4FAC-9A22-1B107A92B49B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="11">
   <si>
     <t>Not conducted</t>
   </si>
@@ -64,15 +64,22 @@
   <si>
     <t>Microcysitn_ugL</t>
   </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
     <numFmt numFmtId="166" formatCode="###0.00;\-###0.00"/>
+    <numFmt numFmtId="167" formatCode="###0.0000;\-###0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -122,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -136,6 +143,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -301,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,19 +461,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58186A7-C018-4745-8BC7-0794A8A1C35F}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -478,8 +486,14 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44041</v>
       </c>
@@ -489,8 +503,14 @@
       <c r="C2" s="5">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="13">
+        <v>-108.16939000000001</v>
+      </c>
+      <c r="F2" s="13">
+        <v>43.40081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44047</v>
       </c>
@@ -500,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44047</v>
       </c>
@@ -510,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44391</v>
       </c>
@@ -520,8 +540,14 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="13">
+        <v>-108.18168</v>
+      </c>
+      <c r="F5" s="13">
+        <v>43.2194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44391</v>
       </c>
@@ -531,8 +557,14 @@
       <c r="C6" s="5">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="13">
+        <v>-108.15178</v>
+      </c>
+      <c r="F6" s="13">
+        <v>43.328719999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44391</v>
       </c>
@@ -542,8 +574,14 @@
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="13">
+        <v>-108.17327</v>
+      </c>
+      <c r="F7" s="13">
+        <v>43.405659999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44425</v>
       </c>
@@ -553,8 +591,14 @@
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="13">
+        <v>-108.18186</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43.219410000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44425</v>
       </c>
@@ -564,8 +608,14 @@
       <c r="C9" s="5">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="13">
+        <v>-108.15619</v>
+      </c>
+      <c r="F9" s="13">
+        <v>43.329369999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44425</v>
       </c>
@@ -575,8 +625,14 @@
       <c r="C10" s="5">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="13">
+        <v>-108.17362</v>
+      </c>
+      <c r="F10" s="13">
+        <v>43.405459999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44427</v>
       </c>
@@ -586,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44453</v>
       </c>
@@ -596,8 +652,14 @@
       <c r="C12" s="4">
         <v>16.59</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="13">
+        <v>-108.17389</v>
+      </c>
+      <c r="F12" s="13">
+        <v>43.40551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44453</v>
       </c>
@@ -607,8 +669,14 @@
       <c r="C13" s="4">
         <v>2.5070000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="13">
+        <v>-108.15818</v>
+      </c>
+      <c r="F13" s="13">
+        <v>43.331000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44453</v>
       </c>
@@ -618,8 +686,14 @@
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="13">
+        <v>-108.18178</v>
+      </c>
+      <c r="F14" s="13">
+        <v>43.219439999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44467</v>
       </c>
@@ -629,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44489</v>
       </c>
@@ -639,8 +713,14 @@
       <c r="C16" s="5">
         <v>13.32</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="13">
+        <v>-108.17375</v>
+      </c>
+      <c r="F16" s="13">
+        <v>43.405529999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44489</v>
       </c>
@@ -650,8 +730,14 @@
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="13">
+        <v>-108.18192000000001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>43.219369999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44489</v>
       </c>
@@ -661,8 +747,14 @@
       <c r="C18" s="5">
         <v>57.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="13">
+        <v>-108.15528999999999</v>
+      </c>
+      <c r="F18" s="13">
+        <v>43.329450000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44505</v>
       </c>
@@ -672,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44532</v>
       </c>
@@ -682,8 +774,14 @@
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="13">
+        <v>-108.18181</v>
+      </c>
+      <c r="F20" s="13">
+        <v>43.219369999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44532</v>
       </c>
@@ -693,8 +791,14 @@
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="13">
+        <v>-108.15278000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <v>43.330889999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44532</v>
       </c>
@@ -704,8 +808,14 @@
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="13">
+        <v>-108.17357</v>
+      </c>
+      <c r="F22" s="13">
+        <v>43.40558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44762</v>
       </c>
@@ -715,8 +825,14 @@
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="13">
+        <v>-108.16956829999999</v>
+      </c>
+      <c r="F23" s="13">
+        <v>43.400440000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44762</v>
       </c>
@@ -726,8 +842,14 @@
       <c r="C24" s="4">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="13">
+        <v>-108.18169829999999</v>
+      </c>
+      <c r="F24" s="13">
+        <v>43.219371670000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44763</v>
       </c>
@@ -737,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44791</v>
       </c>
@@ -747,8 +869,14 @@
       <c r="C26" s="4">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="13">
+        <v>-108.1558148</v>
+      </c>
+      <c r="F26" s="13">
+        <v>43.32944956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44791</v>
       </c>
@@ -758,8 +886,14 @@
       <c r="C27" s="4">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="13">
+        <v>-108.1738713</v>
+      </c>
+      <c r="F27" s="13">
+        <v>43.405235949999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44810</v>
       </c>
@@ -769,8 +903,14 @@
       <c r="C28" s="5">
         <v>0.16400000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="13">
+        <v>-108.23338</v>
+      </c>
+      <c r="F28" s="13">
+        <v>43.345159000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44810</v>
       </c>
@@ -780,8 +920,14 @@
       <c r="C29" s="5">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="13">
+        <v>-108.15226699999999</v>
+      </c>
+      <c r="F29" s="13">
+        <v>43.330871999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44810</v>
       </c>
@@ -791,8 +937,14 @@
       <c r="C30" s="5">
         <v>1.198</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="13">
+        <v>-108.173804</v>
+      </c>
+      <c r="F30" s="13">
+        <v>43.405416000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44823</v>
       </c>
@@ -802,8 +954,14 @@
       <c r="C31" s="4">
         <v>43.96</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="13">
+        <v>-108.2272483</v>
+      </c>
+      <c r="F31" s="13">
+        <v>43.344066669999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44823</v>
       </c>
@@ -813,8 +971,14 @@
       <c r="C32" s="4">
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E32" s="13">
+        <v>-108.15435170000001</v>
+      </c>
+      <c r="F32" s="13">
+        <v>43.329459999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44823</v>
       </c>
@@ -824,8 +988,14 @@
       <c r="C33" s="4">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E33" s="13">
+        <v>-108.1739</v>
+      </c>
+      <c r="F33" s="13">
+        <v>43.405185000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44834</v>
       </c>
@@ -835,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44838</v>
       </c>
@@ -845,8 +1015,14 @@
       <c r="C35" s="5">
         <v>0.88600000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E35" s="13">
+        <v>-108.233339</v>
+      </c>
+      <c r="F35" s="13">
+        <v>43.345204000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44851</v>
       </c>
@@ -856,8 +1032,14 @@
       <c r="C36" s="5">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E36" s="13">
+        <v>-108.1729083</v>
+      </c>
+      <c r="F36" s="13">
+        <v>43.405451669999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44851</v>
       </c>
@@ -867,8 +1049,14 @@
       <c r="C37" s="5">
         <v>235.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E37" s="13">
+        <v>-108.1522883</v>
+      </c>
+      <c r="F37" s="13">
+        <v>43.330871670000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44851</v>
       </c>
@@ -878,8 +1066,14 @@
       <c r="C38" s="5">
         <v>651</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E38" s="13">
+        <v>-108.2265883</v>
+      </c>
+      <c r="F38" s="13">
+        <v>43.34409333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44861</v>
       </c>
@@ -889,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>45153</v>
       </c>
@@ -900,8 +1094,12 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="13">
+        <v>-108.23338</v>
+      </c>
+      <c r="F40" s="13">
+        <v>43.345159000000002</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -917,7 +1115,7 @@
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>45154</v>
       </c>
@@ -928,8 +1126,12 @@
         <v>16.62</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="13">
+        <v>-108.16956829999999</v>
+      </c>
+      <c r="F41" s="13">
+        <v>43.400440000000003</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -945,7 +1147,7 @@
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>45162</v>
       </c>
@@ -971,7 +1173,7 @@
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>45162</v>
       </c>
@@ -997,7 +1199,7 @@
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>45187</v>
       </c>
@@ -1008,8 +1210,12 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="13">
+        <v>-108.2265883</v>
+      </c>
+      <c r="F44" s="13">
+        <v>43.34409333</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -1025,7 +1231,7 @@
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>45187</v>
       </c>
@@ -1036,8 +1242,12 @@
         <v>8460</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="13">
+        <v>-108.1729083</v>
+      </c>
+      <c r="F45" s="13">
+        <v>43.405451669999998</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="7"/>
@@ -1053,7 +1263,7 @@
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45187</v>
       </c>
@@ -1064,8 +1274,12 @@
         <v>13950</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="13">
+        <v>-108.16956829999999</v>
+      </c>
+      <c r="F46" s="13">
+        <v>43.400440000000003</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="7"/>
@@ -1081,7 +1295,7 @@
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45187</v>
       </c>
@@ -1092,8 +1306,12 @@
         <v>10790</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="13">
+        <v>-108.16956829999999</v>
+      </c>
+      <c r="F47" s="13">
+        <v>43.400440000000003</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="7"/>
@@ -1109,7 +1327,7 @@
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>45224</v>
       </c>
@@ -1120,8 +1338,12 @@
         <v>4.12</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="13">
+        <v>-108.233328</v>
+      </c>
+      <c r="F48" s="13">
+        <v>43.345173000000003</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -1137,7 +1359,7 @@
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>45224</v>
       </c>
@@ -1148,8 +1370,12 @@
         <v>2.84</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="13">
+        <v>-108.16927</v>
+      </c>
+      <c r="F49" s="13">
+        <v>43.400534999999998</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -1165,7 +1391,7 @@
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>45224</v>
       </c>
@@ -1176,8 +1402,12 @@
         <v>5.18</v>
       </c>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="13">
+        <v>-108.16927</v>
+      </c>
+      <c r="F50" s="13">
+        <v>43.400534999999998</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -1193,7 +1423,7 @@
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>45224</v>
       </c>
@@ -1204,8 +1434,12 @@
         <v>3.4</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="E51" s="13">
+        <v>-108.173835</v>
+      </c>
+      <c r="F51" s="13">
+        <v>43.405209999999997</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
